--- a/biology/Médecine/Tumeur_du_poumon/Tumeur_du_poumon.xlsx
+++ b/biology/Médecine/Tumeur_du_poumon/Tumeur_du_poumon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les tumeurs du poumon sont les tumeurs (néoplasies, néoplasmes) se développant à partir du poumon.
 </t>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tumeurs épithéliales malignes du poumon (cancer du poumon)
-Carcinome épidermoïde pulmonaire
+          <t>Tumeurs épithéliales malignes du poumon (cancer du poumon)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carcinome épidermoïde pulmonaire
 Adénocarcinome pulmonaire
 Carcinome pulmonaire à grandes cellules :
 Carcinome neuroendocrine à cellules géantes du poumon (+/- composite)
@@ -538,8 +555,43 @@
 Tumeur carcinoïde atypique pulmonaire
 Carcinome neuroendocrine à grandes cellules
 Carcinome à petites cellules
-Tumeurs épithéliales bénignes du poumon
-Lésions épithéliales pré-tumorales pulmonaires
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Tumeur_du_poumon</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tumeur_du_poumon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification OMS/IASLC 2004</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Tumeurs épithéliales bénignes du poumon</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lésions épithéliales pré-tumorales pulmonaires
 Carcinome épidermoïde in situ bronchique
 Hyperplasie adénomateuse atypique pulmonaire
 Hyperplasie neuroendocrine diffuse idiopathique pulmonaire
